--- a/01_Requirements/LedgerTypes/03_Debtors ledgers creation.xlsx
+++ b/01_Requirements/LedgerTypes/03_Debtors ledgers creation.xlsx
@@ -37,64 +37,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">This screen is same for all Individuals/Firms/ HUF's/ LLP / Company </t>
   </si>
   <si>
-    <t xml:space="preserve">Debtors ledgers Creation </t>
-  </si>
-  <si>
     <t xml:space="preserve">GST Rates to be displayed </t>
   </si>
   <si>
-    <t>Name of the Sundry Debtors</t>
-  </si>
-  <si>
-    <t>Nithya Trading Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST Registration status </t>
-  </si>
-  <si>
-    <t>Regd/ Unregistered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST Registration Number </t>
-  </si>
-  <si>
     <t xml:space="preserve">GST Number </t>
   </si>
   <si>
-    <t>Address of the Debtors</t>
-  </si>
-  <si>
     <t xml:space="preserve">( Auto updation as per the GST No) </t>
   </si>
   <si>
     <t xml:space="preserve">PAN Number </t>
   </si>
   <si>
-    <t>Credit period allowed ( No. of days )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interest Clause if any </t>
   </si>
   <si>
     <t>Opening Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">If customer is un registered GST column automatically has to come as Not Applicable ( NA) </t>
-  </si>
-  <si>
-    <t>It will enable for the setting credit period for showing O/s Dues statement, and Interest calculations</t>
+    <t xml:space="preserve">Debtors or Customers ledgers Creation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Sundry Debtors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC &amp; Co </t>
+  </si>
+  <si>
+    <t>Nature of the customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per Below List ( Drop down box) </t>
+  </si>
+  <si>
+    <t>Address of the Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Code </t>
+  </si>
+  <si>
+    <t>GST Registration Number ( if selected other than unregd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Account Details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the bank account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Account no </t>
+  </si>
+  <si>
+    <t>Bank IFSC Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit period in No. of days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is TDS is applicable </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Applicable section of TDS</t>
+  </si>
+  <si>
+    <t>Drop Down list of TDS Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Debtors :- </t>
+  </si>
+  <si>
+    <t>Registered Dealer</t>
+  </si>
+  <si>
+    <t>Unregistered Dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported Dealer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deemed Export Dealer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEZ Dealer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite Dealer </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +161,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Amasis MT Pro"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Amasis MT Pro"/>
@@ -137,12 +196,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,11 +308,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,24 +338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,15 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,6 +382,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,211 +739,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:J26"/>
+  <dimension ref="D2:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="55.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="10" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D5" s="2"/>
-      <c r="I5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="E20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="33" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="32" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+  <mergeCells count="18">
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J21"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E11:H11"/>
@@ -863,6 +1089,10 @@
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I5:J31"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01_Requirements/LedgerTypes/03_Debtors ledgers creation.xlsx
+++ b/01_Requirements/LedgerTypes/03_Debtors ledgers creation.xlsx
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,6 +371,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,15 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,48 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,350 +741,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1">
       <c r="D5" s="2"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D6" s="2"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D8" s="2"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D12" s="2"/>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D13" s="2"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D14" s="2"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D16" s="2"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D18" s="2"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D20" s="2"/>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D21" s="2"/>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D22" s="2"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D24" s="2"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1">
       <c r="D26" s="2"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1">
       <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="11"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D28" s="2"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D30" s="2"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="33" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="31" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="33" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="32" t="s">
+    <row r="34" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="32" t="s">
+    <row r="35" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D35" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="32" t="s">
+    <row r="36" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D36" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="32" t="s">
+    <row r="37" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D37" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="32" t="s">
+    <row r="38" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D38" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="32" t="s">
+    <row r="39" spans="4:4" ht="24.95" customHeight="1">
+      <c r="D39" s="7" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E19:H19"/>
@@ -1093,6 +1083,16 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E23:H23"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
